--- a/data/pca/factorExposure/factorExposure_2015-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01652197441076118</v>
+        <v>0.01751216657585015</v>
       </c>
       <c r="C2">
-        <v>0.02910991009372039</v>
+        <v>-0.03128145697329845</v>
       </c>
       <c r="D2">
-        <v>0.08644801927033849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1137255570550378</v>
+      </c>
+      <c r="E2">
+        <v>-0.07942701366024221</v>
+      </c>
+      <c r="F2">
+        <v>0.007022584850896327</v>
+      </c>
+      <c r="G2">
+        <v>-0.04887670418250444</v>
+      </c>
+      <c r="H2">
+        <v>0.09889640567576378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0143806461007902</v>
+        <v>0.008356048837351715</v>
       </c>
       <c r="C3">
-        <v>0.05686790681319199</v>
+        <v>-0.03519154884156606</v>
       </c>
       <c r="D3">
-        <v>0.137096591270923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08021107593845657</v>
+      </c>
+      <c r="E3">
+        <v>-0.08388012728614216</v>
+      </c>
+      <c r="F3">
+        <v>0.04176257159593506</v>
+      </c>
+      <c r="G3">
+        <v>-0.08560607823766288</v>
+      </c>
+      <c r="H3">
+        <v>0.03357778999250879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04737542918819839</v>
+        <v>0.05288826643710149</v>
       </c>
       <c r="C4">
-        <v>0.02828105231881324</v>
+        <v>-0.06202936103819241</v>
       </c>
       <c r="D4">
-        <v>0.1228806924030533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1373888296592378</v>
+      </c>
+      <c r="E4">
+        <v>-0.06266947952048414</v>
+      </c>
+      <c r="F4">
+        <v>0.01958913717106961</v>
+      </c>
+      <c r="G4">
+        <v>0.02373033078011053</v>
+      </c>
+      <c r="H4">
+        <v>-0.02724005354849295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04360018098545227</v>
+        <v>0.04084022021276799</v>
       </c>
       <c r="C6">
-        <v>0.004454615528644467</v>
+        <v>-0.02586789456647521</v>
       </c>
       <c r="D6">
-        <v>0.1279294921425269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1275338652711339</v>
+      </c>
+      <c r="E6">
+        <v>-0.04016110847004128</v>
+      </c>
+      <c r="F6">
+        <v>0.01561279756163479</v>
+      </c>
+      <c r="G6">
+        <v>-0.015836604666143</v>
+      </c>
+      <c r="H6">
+        <v>0.008629526176744236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02099519407427693</v>
+        <v>0.01553131327976049</v>
       </c>
       <c r="C7">
-        <v>0.00700351341551635</v>
+        <v>-0.02879338831040733</v>
       </c>
       <c r="D7">
-        <v>0.0864632380076764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09056298367930377</v>
+      </c>
+      <c r="E7">
+        <v>-0.04370685757551674</v>
+      </c>
+      <c r="F7">
+        <v>0.01361546637013425</v>
+      </c>
+      <c r="G7">
+        <v>0.02224710782329221</v>
+      </c>
+      <c r="H7">
+        <v>0.1030558440061524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009407674963768039</v>
+        <v>0.008099205069368797</v>
       </c>
       <c r="C8">
-        <v>0.02875090793376619</v>
+        <v>-0.03692937550049913</v>
       </c>
       <c r="D8">
-        <v>0.06364454373822649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07566768353881707</v>
+      </c>
+      <c r="E8">
+        <v>-0.04350383518808915</v>
+      </c>
+      <c r="F8">
+        <v>0.03048470340338615</v>
+      </c>
+      <c r="G8">
+        <v>-0.008580987845394886</v>
+      </c>
+      <c r="H8">
+        <v>0.03632612791482158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03885696576516173</v>
+        <v>0.04083614151422989</v>
       </c>
       <c r="C9">
-        <v>0.0300088127717725</v>
+        <v>-0.05652359173828857</v>
       </c>
       <c r="D9">
-        <v>0.1057844382985095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1169963079319047</v>
+      </c>
+      <c r="E9">
+        <v>-0.04527517618205879</v>
+      </c>
+      <c r="F9">
+        <v>-0.0009789538567138811</v>
+      </c>
+      <c r="G9">
+        <v>0.01902183131315415</v>
+      </c>
+      <c r="H9">
+        <v>0.007163759857619084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09810596623479394</v>
+        <v>0.1327775551025564</v>
       </c>
       <c r="C10">
-        <v>-0.1989871658943677</v>
+        <v>0.1919778645593788</v>
       </c>
       <c r="D10">
-        <v>-0.01043154008959153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004187520001040653</v>
+      </c>
+      <c r="E10">
+        <v>-0.05213877375252396</v>
+      </c>
+      <c r="F10">
+        <v>0.01368764320878439</v>
+      </c>
+      <c r="G10">
+        <v>0.03919210339575675</v>
+      </c>
+      <c r="H10">
+        <v>-0.0092967078434044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03309551310240268</v>
+        <v>0.02871040248998145</v>
       </c>
       <c r="C11">
-        <v>0.03517380036047863</v>
+        <v>-0.04182535753904203</v>
       </c>
       <c r="D11">
-        <v>0.05927939709723894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05812216067432078</v>
+      </c>
+      <c r="E11">
+        <v>-0.006053914584158236</v>
+      </c>
+      <c r="F11">
+        <v>0.005717168804990994</v>
+      </c>
+      <c r="G11">
+        <v>0.005714293998120673</v>
+      </c>
+      <c r="H11">
+        <v>0.05067409691803607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03730089024858307</v>
+        <v>0.03278706528069024</v>
       </c>
       <c r="C12">
-        <v>0.03489321293614012</v>
+        <v>-0.0436779360376252</v>
       </c>
       <c r="D12">
-        <v>0.05753924044343711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05661930285097475</v>
+      </c>
+      <c r="E12">
+        <v>-0.01679527459088206</v>
+      </c>
+      <c r="F12">
+        <v>0.000454906082997684</v>
+      </c>
+      <c r="G12">
+        <v>0.008927916208184745</v>
+      </c>
+      <c r="H12">
+        <v>0.06329625479640755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01368635737329729</v>
+        <v>0.01943736251200795</v>
       </c>
       <c r="C13">
-        <v>0.02327122841248957</v>
+        <v>-0.03676593210505196</v>
       </c>
       <c r="D13">
-        <v>0.1179271827018331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1398272203338417</v>
+      </c>
+      <c r="E13">
+        <v>-0.07530228978137678</v>
+      </c>
+      <c r="F13">
+        <v>0.02531172955809386</v>
+      </c>
+      <c r="G13">
+        <v>0.003513416699484296</v>
+      </c>
+      <c r="H13">
+        <v>0.0933349864355513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01001781744254954</v>
+        <v>0.00741233907406616</v>
       </c>
       <c r="C14">
-        <v>0.0123955738310905</v>
+        <v>-0.02307433045263858</v>
       </c>
       <c r="D14">
-        <v>0.07780141901308385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08303741078471745</v>
+      </c>
+      <c r="E14">
+        <v>-0.04123890568170187</v>
+      </c>
+      <c r="F14">
+        <v>-0.01340826206356866</v>
+      </c>
+      <c r="G14">
+        <v>0.004215664856262753</v>
+      </c>
+      <c r="H14">
+        <v>0.09949200358296059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001552105317579093</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008751977281080965</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02784025362088763</v>
+      </c>
+      <c r="E15">
+        <v>-0.007449817823785751</v>
+      </c>
+      <c r="F15">
+        <v>-0.002988351104866202</v>
+      </c>
+      <c r="G15">
+        <v>-0.007132989355837728</v>
+      </c>
+      <c r="H15">
+        <v>0.01214396086485298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03498036469601814</v>
+        <v>0.02955355060546262</v>
       </c>
       <c r="C16">
-        <v>0.03618345697657654</v>
+        <v>-0.04239146226357303</v>
       </c>
       <c r="D16">
-        <v>0.06395072387203898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06001256275638001</v>
+      </c>
+      <c r="E16">
+        <v>-0.02013572444715724</v>
+      </c>
+      <c r="F16">
+        <v>-0.007199598050128138</v>
+      </c>
+      <c r="G16">
+        <v>0.001111462959057044</v>
+      </c>
+      <c r="H16">
+        <v>0.05871807702916052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009136132536232577</v>
+        <v>0.01097337690874665</v>
       </c>
       <c r="C19">
-        <v>0.01675127160407122</v>
+        <v>-0.02052831717573872</v>
       </c>
       <c r="D19">
-        <v>0.1664374422447751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1286569813336543</v>
+      </c>
+      <c r="E19">
+        <v>-0.07243610542656</v>
+      </c>
+      <c r="F19">
+        <v>-0.02622019563463077</v>
+      </c>
+      <c r="G19">
+        <v>-0.01515464174344981</v>
+      </c>
+      <c r="H19">
+        <v>0.05503266465698414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01840577977134557</v>
+        <v>0.01564161662417541</v>
       </c>
       <c r="C20">
-        <v>0.0161711296925295</v>
+        <v>-0.03144228423550292</v>
       </c>
       <c r="D20">
-        <v>0.08235098503569573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09336460020484506</v>
+      </c>
+      <c r="E20">
+        <v>-0.06139051108094658</v>
+      </c>
+      <c r="F20">
+        <v>-0.007368377413142227</v>
+      </c>
+      <c r="G20">
+        <v>0.004582768727457292</v>
+      </c>
+      <c r="H20">
+        <v>0.05511170212530366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008479205882883221</v>
+        <v>0.01448931928052603</v>
       </c>
       <c r="C21">
-        <v>0.0153074238338869</v>
+        <v>-0.03513930709363473</v>
       </c>
       <c r="D21">
-        <v>0.1196356210619722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1345417548714413</v>
+      </c>
+      <c r="E21">
+        <v>-0.09885359414839436</v>
+      </c>
+      <c r="F21">
+        <v>-0.01380876304032249</v>
+      </c>
+      <c r="G21">
+        <v>0.04300605028326068</v>
+      </c>
+      <c r="H21">
+        <v>0.1053981779874586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002426077759926799</v>
+        <v>0.004994822642931978</v>
       </c>
       <c r="C22">
-        <v>0.01776580076358483</v>
+        <v>-0.03877281590802708</v>
       </c>
       <c r="D22">
-        <v>0.07141433732805003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1245766521393015</v>
+      </c>
+      <c r="E22">
+        <v>-0.03298226802116863</v>
+      </c>
+      <c r="F22">
+        <v>0.07748505750329049</v>
+      </c>
+      <c r="G22">
+        <v>-0.06104597297717313</v>
+      </c>
+      <c r="H22">
+        <v>-0.01795736976891822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002459885702561788</v>
+        <v>0.005087066186596893</v>
       </c>
       <c r="C23">
-        <v>0.01775601768341365</v>
+        <v>-0.03921923579647384</v>
       </c>
       <c r="D23">
-        <v>0.07087949776481761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1240349680111977</v>
+      </c>
+      <c r="E23">
+        <v>-0.03318920261404534</v>
+      </c>
+      <c r="F23">
+        <v>0.07739394306302798</v>
+      </c>
+      <c r="G23">
+        <v>-0.06018887883229935</v>
+      </c>
+      <c r="H23">
+        <v>-0.01825630271367132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03401905350641517</v>
+        <v>0.03133876671079978</v>
       </c>
       <c r="C24">
-        <v>0.03950910642022817</v>
+        <v>-0.05229298890226455</v>
       </c>
       <c r="D24">
-        <v>0.06637957580010349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06503799082757443</v>
+      </c>
+      <c r="E24">
+        <v>-0.0231965674029659</v>
+      </c>
+      <c r="F24">
+        <v>-0.005106637802652019</v>
+      </c>
+      <c r="G24">
+        <v>0.01259744994393291</v>
+      </c>
+      <c r="H24">
+        <v>0.06775248878606592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04095697566323379</v>
+        <v>0.036099892058652</v>
       </c>
       <c r="C25">
-        <v>0.04522421163505867</v>
+        <v>-0.05184536373272552</v>
       </c>
       <c r="D25">
-        <v>0.06680299717221651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06111741439709861</v>
+      </c>
+      <c r="E25">
+        <v>-0.0238879964873339</v>
+      </c>
+      <c r="F25">
+        <v>0.0056319997236401</v>
+      </c>
+      <c r="G25">
+        <v>0.01833677718361286</v>
+      </c>
+      <c r="H25">
+        <v>0.05389696713613917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02232548614879637</v>
+        <v>0.02073538049471686</v>
       </c>
       <c r="C26">
-        <v>0.001822656410607589</v>
+        <v>-0.016355708838048</v>
       </c>
       <c r="D26">
-        <v>0.05173328835122188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06385496585057877</v>
+      </c>
+      <c r="E26">
+        <v>-0.03196993068260987</v>
+      </c>
+      <c r="F26">
+        <v>-0.006212298964424943</v>
+      </c>
+      <c r="G26">
+        <v>-0.002417480704720958</v>
+      </c>
+      <c r="H26">
+        <v>0.05594162964022082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.135208776507066</v>
+        <v>0.1867719475699411</v>
       </c>
       <c r="C28">
-        <v>-0.2755533928647145</v>
+        <v>0.2581781280918908</v>
       </c>
       <c r="D28">
-        <v>-0.05492962573797509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01971284273250231</v>
+      </c>
+      <c r="E28">
+        <v>-0.07399907842712014</v>
+      </c>
+      <c r="F28">
+        <v>-0.00471394046371426</v>
+      </c>
+      <c r="G28">
+        <v>0.07685507208685402</v>
+      </c>
+      <c r="H28">
+        <v>0.002612461731260667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003655294549434304</v>
+        <v>0.006300592971785163</v>
       </c>
       <c r="C29">
-        <v>0.01259870561734423</v>
+        <v>-0.02246887593970698</v>
       </c>
       <c r="D29">
-        <v>0.06115544996523353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07708090213177639</v>
+      </c>
+      <c r="E29">
+        <v>-0.04361796465818724</v>
+      </c>
+      <c r="F29">
+        <v>0.000130205585049525</v>
+      </c>
+      <c r="G29">
+        <v>0.02140046777722038</v>
+      </c>
+      <c r="H29">
+        <v>0.09949279057788867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04165662283525119</v>
+        <v>0.04312034649061273</v>
       </c>
       <c r="C30">
-        <v>0.02740552992984333</v>
+        <v>-0.05588520256195151</v>
       </c>
       <c r="D30">
-        <v>0.1612177404776457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1739890818814664</v>
+      </c>
+      <c r="E30">
+        <v>-0.03172935169995454</v>
+      </c>
+      <c r="F30">
+        <v>0.005994815767458255</v>
+      </c>
+      <c r="G30">
+        <v>-0.03925197235112311</v>
+      </c>
+      <c r="H30">
+        <v>0.01428895327545967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06625225779173009</v>
+        <v>0.05719433570713405</v>
       </c>
       <c r="C31">
-        <v>0.04639952560194518</v>
+        <v>-0.07124946317345944</v>
       </c>
       <c r="D31">
-        <v>0.06067575834030141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05268592369300353</v>
+      </c>
+      <c r="E31">
+        <v>-0.04169842546330505</v>
+      </c>
+      <c r="F31">
+        <v>0.04200717357478344</v>
+      </c>
+      <c r="G31">
+        <v>0.009566109666987444</v>
+      </c>
+      <c r="H31">
+        <v>0.03059281078262689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001492972431072299</v>
+        <v>0.009106518182548082</v>
       </c>
       <c r="C32">
-        <v>-0.003529452867782213</v>
+        <v>-0.01338671377314946</v>
       </c>
       <c r="D32">
-        <v>0.05200230939769269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.08999258768435636</v>
+      </c>
+      <c r="E32">
+        <v>-0.09471478752842233</v>
+      </c>
+      <c r="F32">
+        <v>-0.007169401134799132</v>
+      </c>
+      <c r="G32">
+        <v>0.05814719044816702</v>
+      </c>
+      <c r="H32">
+        <v>0.0889449161787374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0250505067954813</v>
+        <v>0.02436471327465081</v>
       </c>
       <c r="C33">
-        <v>0.01890296378596867</v>
+        <v>-0.04023188568787181</v>
       </c>
       <c r="D33">
-        <v>0.1299621791517898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1312079033491218</v>
+      </c>
+      <c r="E33">
+        <v>-0.05885327974470297</v>
+      </c>
+      <c r="F33">
+        <v>0.01583192731316264</v>
+      </c>
+      <c r="G33">
+        <v>0.003496588863049702</v>
+      </c>
+      <c r="H33">
+        <v>0.06301398677193258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03049790748179139</v>
+        <v>0.02863371949872534</v>
       </c>
       <c r="C34">
-        <v>0.0558707197528884</v>
+        <v>-0.05992865141856948</v>
       </c>
       <c r="D34">
-        <v>0.06784798390934547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05961767643660814</v>
+      </c>
+      <c r="E34">
+        <v>-0.005034447000581517</v>
+      </c>
+      <c r="F34">
+        <v>-0.004480655565151604</v>
+      </c>
+      <c r="G34">
+        <v>0.01520788816364882</v>
+      </c>
+      <c r="H34">
+        <v>0.07419695174152126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000609735673154638</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002691183238368323</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00314790450382617</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005435941934309395</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002880690764938774</v>
+      </c>
+      <c r="G35">
+        <v>0.0001703781192221783</v>
+      </c>
+      <c r="H35">
+        <v>0.002806529757296906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02006711384285421</v>
+        <v>0.01835547568771374</v>
       </c>
       <c r="C36">
-        <v>-0.0001144712745347558</v>
+        <v>-0.01453494015364146</v>
       </c>
       <c r="D36">
-        <v>0.07007580180980105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07583269315549353</v>
+      </c>
+      <c r="E36">
+        <v>-0.04018201891594429</v>
+      </c>
+      <c r="F36">
+        <v>-0.004882121775079314</v>
+      </c>
+      <c r="G36">
+        <v>0.01375134935900388</v>
+      </c>
+      <c r="H36">
+        <v>0.0514444587390475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02671888879227157</v>
+        <v>0.02200590406620147</v>
       </c>
       <c r="C38">
-        <v>0.0165188361388955</v>
+        <v>-0.02132485041668783</v>
       </c>
       <c r="D38">
-        <v>0.05491004584676053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05970881725449305</v>
+      </c>
+      <c r="E38">
+        <v>-0.04565877682678963</v>
+      </c>
+      <c r="F38">
+        <v>-0.004133425527851738</v>
+      </c>
+      <c r="G38">
+        <v>-0.03459999288942478</v>
+      </c>
+      <c r="H38">
+        <v>0.04066814898207442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03991282073282713</v>
+        <v>0.03697632475313494</v>
       </c>
       <c r="C39">
-        <v>0.04637592024919162</v>
+        <v>-0.06215543946937829</v>
       </c>
       <c r="D39">
-        <v>0.08905665240599389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1018270611211911</v>
+      </c>
+      <c r="E39">
+        <v>-0.0203454470621344</v>
+      </c>
+      <c r="F39">
+        <v>-0.0223400199002017</v>
+      </c>
+      <c r="G39">
+        <v>-0.0002506957346644223</v>
+      </c>
+      <c r="H39">
+        <v>0.08644884472593158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01596100383870126</v>
+        <v>0.01472724519014854</v>
       </c>
       <c r="C40">
-        <v>0.03731235541920468</v>
+        <v>-0.03592030370906363</v>
       </c>
       <c r="D40">
-        <v>0.07446025956512466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08394926694613442</v>
+      </c>
+      <c r="E40">
+        <v>-0.08069960498921709</v>
+      </c>
+      <c r="F40">
+        <v>0.05002643650303439</v>
+      </c>
+      <c r="G40">
+        <v>-0.01967542605706058</v>
+      </c>
+      <c r="H40">
+        <v>0.160219937725583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02519579874784263</v>
+        <v>0.02293442528624611</v>
       </c>
       <c r="C41">
-        <v>-0.009818453940625308</v>
+        <v>-0.007590887397213899</v>
       </c>
       <c r="D41">
-        <v>0.06672159491882199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05658811174884558</v>
+      </c>
+      <c r="E41">
+        <v>-0.0559268098987426</v>
+      </c>
+      <c r="F41">
+        <v>-0.002042183582072118</v>
+      </c>
+      <c r="G41">
+        <v>-0.004279470636822219</v>
+      </c>
+      <c r="H41">
+        <v>0.04358178444105853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03478526232797883</v>
+        <v>0.02555133080630308</v>
       </c>
       <c r="C43">
-        <v>6.384583712433377e-05</v>
+        <v>-0.0175358733903611</v>
       </c>
       <c r="D43">
-        <v>0.1042142138322852</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08767400604239825</v>
+      </c>
+      <c r="E43">
+        <v>-0.04414465325563553</v>
+      </c>
+      <c r="F43">
+        <v>0.00391816890353223</v>
+      </c>
+      <c r="G43">
+        <v>-0.006898665366996365</v>
+      </c>
+      <c r="H43">
+        <v>0.06186729328851923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01215563161255751</v>
+        <v>0.0166489797680763</v>
       </c>
       <c r="C44">
-        <v>0.0358236537404563</v>
+        <v>-0.04070683556541776</v>
       </c>
       <c r="D44">
-        <v>0.08396078587006499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09398318479876917</v>
+      </c>
+      <c r="E44">
+        <v>-0.07768045678363122</v>
+      </c>
+      <c r="F44">
+        <v>-0.002633943371337961</v>
+      </c>
+      <c r="G44">
+        <v>0.0154657008609283</v>
+      </c>
+      <c r="H44">
+        <v>0.07142720622278645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01859474270659758</v>
+        <v>0.01630512932816</v>
       </c>
       <c r="C46">
-        <v>0.01344555280236979</v>
+        <v>-0.02896338322658097</v>
       </c>
       <c r="D46">
-        <v>0.07024321391796341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08598431395527063</v>
+      </c>
+      <c r="E46">
+        <v>-0.04622836430340698</v>
+      </c>
+      <c r="F46">
+        <v>-0.02302205393991641</v>
+      </c>
+      <c r="G46">
+        <v>0.02936373154740449</v>
+      </c>
+      <c r="H46">
+        <v>0.09801711481478624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09263813044910173</v>
+        <v>0.08618722775079385</v>
       </c>
       <c r="C47">
-        <v>0.06510499407656029</v>
+        <v>-0.08788938234070272</v>
       </c>
       <c r="D47">
-        <v>0.03972794058692437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0334765458326368</v>
+      </c>
+      <c r="E47">
+        <v>-0.03971979516655984</v>
+      </c>
+      <c r="F47">
+        <v>0.02343429566109353</v>
+      </c>
+      <c r="G47">
+        <v>0.05781929234479777</v>
+      </c>
+      <c r="H47">
+        <v>0.006700440912749653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02035872467171611</v>
+        <v>0.01937712176580169</v>
       </c>
       <c r="C48">
-        <v>0.003630420083950539</v>
+        <v>-0.01818372737753609</v>
       </c>
       <c r="D48">
-        <v>0.06901672034475838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0772096116750758</v>
+      </c>
+      <c r="E48">
+        <v>-0.05539318083291412</v>
+      </c>
+      <c r="F48">
+        <v>-0.01507099486553229</v>
+      </c>
+      <c r="G48">
+        <v>0.009609137113493789</v>
+      </c>
+      <c r="H48">
+        <v>0.05204161104520908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0772484412920699</v>
+        <v>0.06155049457061595</v>
       </c>
       <c r="C50">
-        <v>0.05806922601697698</v>
+        <v>-0.06931665067250414</v>
       </c>
       <c r="D50">
-        <v>0.0664046266890217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05890717891426003</v>
+      </c>
+      <c r="E50">
+        <v>-0.04915795113978087</v>
+      </c>
+      <c r="F50">
+        <v>0.0430863004133779</v>
+      </c>
+      <c r="G50">
+        <v>-0.008386984697376216</v>
+      </c>
+      <c r="H50">
+        <v>0.03513884028747372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007881135576770741</v>
+        <v>0.007265184903765304</v>
       </c>
       <c r="C51">
-        <v>0.009729003193568142</v>
+        <v>-0.01478130801186005</v>
       </c>
       <c r="D51">
-        <v>0.07488365199238016</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08637989420618526</v>
+      </c>
+      <c r="E51">
+        <v>-0.03363333093211567</v>
+      </c>
+      <c r="F51">
+        <v>-0.003925456984326626</v>
+      </c>
+      <c r="G51">
+        <v>-0.008767515972346892</v>
+      </c>
+      <c r="H51">
+        <v>0.07733637973977739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07543701701141672</v>
+        <v>0.08693990305970288</v>
       </c>
       <c r="C53">
-        <v>0.08744562601578838</v>
+        <v>-0.09985033655363756</v>
       </c>
       <c r="D53">
-        <v>0.01867799202974723</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004086770562724403</v>
+      </c>
+      <c r="E53">
+        <v>-0.09924447711167624</v>
+      </c>
+      <c r="F53">
+        <v>0.02843992921777879</v>
+      </c>
+      <c r="G53">
+        <v>0.0948412212241401</v>
+      </c>
+      <c r="H53">
+        <v>-0.02670208835225995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03346436246753916</v>
+        <v>0.0272230391288402</v>
       </c>
       <c r="C54">
-        <v>0.02173921010321167</v>
+        <v>-0.03421132891338777</v>
       </c>
       <c r="D54">
-        <v>0.08317730233030635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08572441989158852</v>
+      </c>
+      <c r="E54">
+        <v>-0.04619441133881904</v>
+      </c>
+      <c r="F54">
+        <v>-0.0187567570526927</v>
+      </c>
+      <c r="G54">
+        <v>0.0009583080076351529</v>
+      </c>
+      <c r="H54">
+        <v>0.1084417049885254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08576823686665555</v>
+        <v>0.08487761129444543</v>
       </c>
       <c r="C55">
-        <v>0.06578092083462041</v>
+        <v>-0.08086558739169039</v>
       </c>
       <c r="D55">
-        <v>-0.001218841278429332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01235051136154917</v>
+      </c>
+      <c r="E55">
+        <v>-0.05951128576967729</v>
+      </c>
+      <c r="F55">
+        <v>0.03145180334250132</v>
+      </c>
+      <c r="G55">
+        <v>0.04417743060873453</v>
+      </c>
+      <c r="H55">
+        <v>-0.02474913231890121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.134909031100277</v>
+        <v>0.1328026921557939</v>
       </c>
       <c r="C56">
-        <v>0.1008856918624382</v>
+        <v>-0.1248424268548289</v>
       </c>
       <c r="D56">
-        <v>0.005114673311859687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01399979612258667</v>
+      </c>
+      <c r="E56">
+        <v>-0.06015791536903795</v>
+      </c>
+      <c r="F56">
+        <v>0.01816969879791847</v>
+      </c>
+      <c r="G56">
+        <v>0.06389312684929668</v>
+      </c>
+      <c r="H56">
+        <v>-0.02353075812290786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03664775946198853</v>
+        <v>0.03726521423477618</v>
       </c>
       <c r="C58">
-        <v>-0.03286754773567229</v>
+        <v>-0.01698066855792262</v>
       </c>
       <c r="D58">
-        <v>0.3918625178060105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3785418705509818</v>
+      </c>
+      <c r="E58">
+        <v>-0.2263581485947807</v>
+      </c>
+      <c r="F58">
+        <v>0.131393381785959</v>
+      </c>
+      <c r="G58">
+        <v>-0.4115177262403999</v>
+      </c>
+      <c r="H58">
+        <v>-0.3958667081860169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.138158463891344</v>
+        <v>0.1693443341455269</v>
       </c>
       <c r="C59">
-        <v>-0.1966398439976704</v>
+        <v>0.1738610516880496</v>
       </c>
       <c r="D59">
-        <v>0.0101609759055884</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0450568066209532</v>
+      </c>
+      <c r="E59">
+        <v>-0.01915910705639187</v>
+      </c>
+      <c r="F59">
+        <v>-0.03459511696272091</v>
+      </c>
+      <c r="G59">
+        <v>-0.003617689444054972</v>
+      </c>
+      <c r="H59">
+        <v>-0.02093489570396742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2589366279263139</v>
+        <v>0.2351670260040294</v>
       </c>
       <c r="C60">
-        <v>0.05660832458523082</v>
+        <v>-0.09154207989773298</v>
       </c>
       <c r="D60">
-        <v>0.1631782418968676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1244382841928675</v>
+      </c>
+      <c r="E60">
+        <v>0.3521024952535746</v>
+      </c>
+      <c r="F60">
+        <v>0.07998867182124064</v>
+      </c>
+      <c r="G60">
+        <v>0.01880841029665231</v>
+      </c>
+      <c r="H60">
+        <v>-0.06161110046180217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04559645536447469</v>
+        <v>0.04191790798286268</v>
       </c>
       <c r="C61">
-        <v>0.0458051787762409</v>
+        <v>-0.0574781348445229</v>
       </c>
       <c r="D61">
-        <v>0.09906822244157179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09471237776462073</v>
+      </c>
+      <c r="E61">
+        <v>-0.01900709617182657</v>
+      </c>
+      <c r="F61">
+        <v>-0.01070976203793701</v>
+      </c>
+      <c r="G61">
+        <v>0.01844679665611753</v>
+      </c>
+      <c r="H61">
+        <v>0.07662569708504491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01520958856982983</v>
+        <v>0.01543247415151351</v>
       </c>
       <c r="C63">
-        <v>0.01552651448958561</v>
+        <v>-0.0303368271616189</v>
       </c>
       <c r="D63">
-        <v>0.06049927043791394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07004163526511761</v>
+      </c>
+      <c r="E63">
+        <v>-0.05123693206709177</v>
+      </c>
+      <c r="F63">
+        <v>0.02401188052246988</v>
+      </c>
+      <c r="G63">
+        <v>-0.007652768931746374</v>
+      </c>
+      <c r="H63">
+        <v>0.04555529092667561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05506357270562885</v>
+        <v>0.05504433310546702</v>
       </c>
       <c r="C64">
-        <v>0.05890151774950164</v>
+        <v>-0.07665437201131858</v>
       </c>
       <c r="D64">
-        <v>0.05968096318801858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05449401101157113</v>
+      </c>
+      <c r="E64">
+        <v>-0.03609128024454544</v>
+      </c>
+      <c r="F64">
+        <v>-0.01955535021510207</v>
+      </c>
+      <c r="G64">
+        <v>0.04750357798593695</v>
+      </c>
+      <c r="H64">
+        <v>0.04478590921178956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06103496204559648</v>
+        <v>0.05253187648148133</v>
       </c>
       <c r="C65">
-        <v>0.002072299150179871</v>
+        <v>-0.02546076257920594</v>
       </c>
       <c r="D65">
-        <v>0.1161047789232194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1197278941976958</v>
+      </c>
+      <c r="E65">
+        <v>-0.007030055383332958</v>
+      </c>
+      <c r="F65">
+        <v>0.0217983848482653</v>
+      </c>
+      <c r="G65">
+        <v>-0.04081534592714761</v>
+      </c>
+      <c r="H65">
+        <v>-0.02974905072265812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0446745058243797</v>
+        <v>0.04367693586589136</v>
       </c>
       <c r="C66">
-        <v>0.04697305143523132</v>
+        <v>-0.06918528384218856</v>
       </c>
       <c r="D66">
-        <v>0.1134523015024056</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1281477320143758</v>
+      </c>
+      <c r="E66">
+        <v>-0.02375519900588882</v>
+      </c>
+      <c r="F66">
+        <v>-0.01293079441051134</v>
+      </c>
+      <c r="G66">
+        <v>-0.006138705326389549</v>
+      </c>
+      <c r="H66">
+        <v>0.06158339373497958</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04514566591117658</v>
+        <v>0.03837604844558597</v>
       </c>
       <c r="C67">
-        <v>0.02604888805941214</v>
+        <v>-0.02712575041908529</v>
       </c>
       <c r="D67">
-        <v>0.0283450606435617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02427277945473748</v>
+      </c>
+      <c r="E67">
+        <v>-0.02908471168768294</v>
+      </c>
+      <c r="F67">
+        <v>0.002338975316159298</v>
+      </c>
+      <c r="G67">
+        <v>-0.02942703315569559</v>
+      </c>
+      <c r="H67">
+        <v>0.04187249919421993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1691245076021655</v>
+        <v>0.1922351258299719</v>
       </c>
       <c r="C68">
-        <v>-0.2615290145228367</v>
+        <v>0.2092627921739598</v>
       </c>
       <c r="D68">
-        <v>-0.02710348084062363</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01571834246845194</v>
+      </c>
+      <c r="E68">
+        <v>-0.0545757410663338</v>
+      </c>
+      <c r="F68">
+        <v>0.02413994804114565</v>
+      </c>
+      <c r="G68">
+        <v>-0.009125435640422617</v>
+      </c>
+      <c r="H68">
+        <v>-0.008877506719073889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0857959345905019</v>
+        <v>0.07857145353849163</v>
       </c>
       <c r="C69">
-        <v>0.07678656087427072</v>
+        <v>-0.09718723583413023</v>
       </c>
       <c r="D69">
-        <v>0.05306685330378217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0469218607433653</v>
+      </c>
+      <c r="E69">
+        <v>-0.03102355543922636</v>
+      </c>
+      <c r="F69">
+        <v>0.001922310705241067</v>
+      </c>
+      <c r="G69">
+        <v>0.03966021771078671</v>
+      </c>
+      <c r="H69">
+        <v>0.02332145879634797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1409584025977431</v>
+        <v>0.1760381084563909</v>
       </c>
       <c r="C71">
-        <v>-0.2510030492104969</v>
+        <v>0.22101655547795</v>
       </c>
       <c r="D71">
-        <v>0.007545252558980119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03486324208394498</v>
+      </c>
+      <c r="E71">
+        <v>-0.05406825289501243</v>
+      </c>
+      <c r="F71">
+        <v>0.02161901054831326</v>
+      </c>
+      <c r="G71">
+        <v>0.03629455443716943</v>
+      </c>
+      <c r="H71">
+        <v>0.01234704333114442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09852458522667211</v>
+        <v>0.1017890646685212</v>
       </c>
       <c r="C72">
-        <v>0.03450687774421986</v>
+        <v>-0.06241736632164416</v>
       </c>
       <c r="D72">
-        <v>0.09492874791150469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09783763108814436</v>
+      </c>
+      <c r="E72">
+        <v>0.02339734402257835</v>
+      </c>
+      <c r="F72">
+        <v>0.03390029233725436</v>
+      </c>
+      <c r="G72">
+        <v>0.02230876235347189</v>
+      </c>
+      <c r="H72">
+        <v>0.02854706433316438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3160556669210277</v>
+        <v>0.2676790154725767</v>
       </c>
       <c r="C73">
-        <v>0.009908482111783121</v>
+        <v>-0.07575387222552249</v>
       </c>
       <c r="D73">
-        <v>0.2800845538794875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2032304564588422</v>
+      </c>
+      <c r="E73">
+        <v>0.6705672186437643</v>
+      </c>
+      <c r="F73">
+        <v>0.09375665047968626</v>
+      </c>
+      <c r="G73">
+        <v>-0.03968335047065966</v>
+      </c>
+      <c r="H73">
+        <v>-0.1152376405309719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1034797820237856</v>
+        <v>0.102301546670233</v>
       </c>
       <c r="C74">
-        <v>0.06333023057751039</v>
+        <v>-0.08846670932531317</v>
       </c>
       <c r="D74">
-        <v>0.01962018731785489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002366984181689233</v>
+      </c>
+      <c r="E74">
+        <v>-0.08453627953916669</v>
+      </c>
+      <c r="F74">
+        <v>0.04232291872635061</v>
+      </c>
+      <c r="G74">
+        <v>0.05704996032480163</v>
+      </c>
+      <c r="H74">
+        <v>-0.05575939937156214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2432991753361871</v>
+        <v>0.2381795052372734</v>
       </c>
       <c r="C75">
-        <v>0.1421451950155009</v>
+        <v>-0.1669429381775925</v>
       </c>
       <c r="D75">
-        <v>-0.05581571285713397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1045212812782092</v>
+      </c>
+      <c r="E75">
+        <v>-0.07469281478755287</v>
+      </c>
+      <c r="F75">
+        <v>-0.007276458724669315</v>
+      </c>
+      <c r="G75">
+        <v>0.08743392564363099</v>
+      </c>
+      <c r="H75">
+        <v>-0.1462721286485759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1250106191887699</v>
+        <v>0.126482066340243</v>
       </c>
       <c r="C76">
-        <v>0.09012234106797913</v>
+        <v>-0.1126999814101687</v>
       </c>
       <c r="D76">
-        <v>-0.005553253424532962</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02133412690772926</v>
+      </c>
+      <c r="E76">
+        <v>-0.1158745609938209</v>
+      </c>
+      <c r="F76">
+        <v>0.01313861072412933</v>
+      </c>
+      <c r="G76">
+        <v>0.06110554372445525</v>
+      </c>
+      <c r="H76">
+        <v>-0.02200976738107075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07316346340877784</v>
+        <v>0.0658845386257149</v>
       </c>
       <c r="C77">
-        <v>0.05441007626601212</v>
+        <v>-0.06746619328312853</v>
       </c>
       <c r="D77">
-        <v>0.07204138920632699</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1321541165556298</v>
+      </c>
+      <c r="E77">
+        <v>-0.125992117429765</v>
+      </c>
+      <c r="F77">
+        <v>-0.2888688809797877</v>
+      </c>
+      <c r="G77">
+        <v>-0.04854084563128544</v>
+      </c>
+      <c r="H77">
+        <v>-0.2068284750513842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03681138997058693</v>
+        <v>0.04009396502516806</v>
       </c>
       <c r="C78">
-        <v>0.04059723489354914</v>
+        <v>-0.0596807654286023</v>
       </c>
       <c r="D78">
-        <v>0.110068209354592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1239232247256389</v>
+      </c>
+      <c r="E78">
+        <v>-0.02967706277476558</v>
+      </c>
+      <c r="F78">
+        <v>0.01843708286406483</v>
+      </c>
+      <c r="G78">
+        <v>0.03259645226048733</v>
+      </c>
+      <c r="H78">
+        <v>0.0448823777507114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001716101044282901</v>
+        <v>0.04097961901192297</v>
       </c>
       <c r="C79">
-        <v>-0.001701992704692993</v>
+        <v>-0.08511975466022162</v>
       </c>
       <c r="D79">
-        <v>0.01601726608001914</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03084539563424502</v>
+      </c>
+      <c r="E79">
+        <v>-0.1674124474375688</v>
+      </c>
+      <c r="F79">
+        <v>0.07845988989192056</v>
+      </c>
+      <c r="G79">
+        <v>0.5341403762464357</v>
+      </c>
+      <c r="H79">
+        <v>-0.5280462214036752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03000661185919035</v>
+        <v>0.02492386651688853</v>
       </c>
       <c r="C80">
-        <v>0.014635041641889</v>
+        <v>-0.03614978153209676</v>
       </c>
       <c r="D80">
-        <v>0.02575649156293659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03485925898374195</v>
+      </c>
+      <c r="E80">
+        <v>-0.01620207086360928</v>
+      </c>
+      <c r="F80">
+        <v>-0.04178814794027149</v>
+      </c>
+      <c r="G80">
+        <v>-0.04034414143611023</v>
+      </c>
+      <c r="H80">
+        <v>0.04047504732003519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1393232446272968</v>
+        <v>0.1317335122734445</v>
       </c>
       <c r="C81">
-        <v>0.0990974280989888</v>
+        <v>-0.1181669483776652</v>
       </c>
       <c r="D81">
-        <v>-0.04791044923122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07051013116326417</v>
+      </c>
+      <c r="E81">
+        <v>-0.1124100183246807</v>
+      </c>
+      <c r="F81">
+        <v>0.003915380486275551</v>
+      </c>
+      <c r="G81">
+        <v>0.05053212089584549</v>
+      </c>
+      <c r="H81">
+        <v>-0.05115985829497689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.282150383730297</v>
+        <v>0.2487295697635361</v>
       </c>
       <c r="C82">
-        <v>0.2674787005225848</v>
+        <v>-0.2470816929122377</v>
       </c>
       <c r="D82">
-        <v>-0.2195873253616564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2220128586215308</v>
+      </c>
+      <c r="E82">
+        <v>-0.0002613700845172674</v>
+      </c>
+      <c r="F82">
+        <v>0.0345385841207003</v>
+      </c>
+      <c r="G82">
+        <v>0.2579659011884887</v>
+      </c>
+      <c r="H82">
+        <v>0.4489590547567552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02914876877622024</v>
+        <v>0.02318730096152071</v>
       </c>
       <c r="C83">
-        <v>0.04535086291055521</v>
+        <v>-0.05065244043462457</v>
       </c>
       <c r="D83">
-        <v>0.05161434829585887</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05260239752472442</v>
+      </c>
+      <c r="E83">
+        <v>-0.009056954815447596</v>
+      </c>
+      <c r="F83">
+        <v>-0.02382537477272983</v>
+      </c>
+      <c r="G83">
+        <v>0.001590146854854653</v>
+      </c>
+      <c r="H83">
+        <v>0.0332968500036945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.300223626794326e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004595911104864891</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.009648887850934757</v>
+      </c>
+      <c r="E84">
+        <v>-0.01085308895458881</v>
+      </c>
+      <c r="F84">
+        <v>0.003516892741235076</v>
+      </c>
+      <c r="G84">
+        <v>-0.008213949138820341</v>
+      </c>
+      <c r="H84">
+        <v>0.005365988445093776</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1809520543459045</v>
+        <v>0.1634118288998551</v>
       </c>
       <c r="C85">
-        <v>0.09854101406841624</v>
+        <v>-0.1312962817007232</v>
       </c>
       <c r="D85">
-        <v>-0.03955037989803027</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.07460401980017776</v>
+      </c>
+      <c r="E85">
+        <v>-0.0429491753567435</v>
+      </c>
+      <c r="F85">
+        <v>0.03576192375320809</v>
+      </c>
+      <c r="G85">
+        <v>0.08830338193135505</v>
+      </c>
+      <c r="H85">
+        <v>-0.1213054055913704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0120564108524067</v>
+        <v>0.01864714885714377</v>
       </c>
       <c r="C86">
-        <v>0.02271397838285087</v>
+        <v>-0.02158292196284358</v>
       </c>
       <c r="D86">
-        <v>0.1347850991195932</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.122612827103931</v>
+      </c>
+      <c r="E86">
+        <v>-0.01681477344142823</v>
+      </c>
+      <c r="F86">
+        <v>-0.009560716071324296</v>
+      </c>
+      <c r="G86">
+        <v>0.03806663475526755</v>
+      </c>
+      <c r="H86">
+        <v>0.06909915493520549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02565464050829623</v>
+        <v>0.03160626965696289</v>
       </c>
       <c r="C87">
-        <v>-0.00104933546985532</v>
+        <v>-0.02504066125808994</v>
       </c>
       <c r="D87">
-        <v>0.08654152688449593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1247218381989317</v>
+      </c>
+      <c r="E87">
+        <v>-0.08807490821776991</v>
+      </c>
+      <c r="F87">
+        <v>-0.02029642404237666</v>
+      </c>
+      <c r="G87">
+        <v>-0.00516514392226948</v>
+      </c>
+      <c r="H87">
+        <v>0.03506374924511443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08278904850624284</v>
+        <v>0.07456682480085328</v>
       </c>
       <c r="C88">
-        <v>0.04160400242386679</v>
+        <v>-0.05684533450357824</v>
       </c>
       <c r="D88">
-        <v>0.04735110688821936</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02717740265881559</v>
+      </c>
+      <c r="E88">
+        <v>-0.02986324577403347</v>
+      </c>
+      <c r="F88">
+        <v>0.005577536097351114</v>
+      </c>
+      <c r="G88">
+        <v>-0.01029774752401991</v>
+      </c>
+      <c r="H88">
+        <v>0.02041528814851628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2040474296996088</v>
+        <v>0.2634477494496312</v>
       </c>
       <c r="C89">
-        <v>-0.356730637430822</v>
+        <v>0.3565422446437304</v>
       </c>
       <c r="D89">
-        <v>-0.06017907608349383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01593331215604919</v>
+      </c>
+      <c r="E89">
+        <v>-0.06233726297260783</v>
+      </c>
+      <c r="F89">
+        <v>-0.04919884916647414</v>
+      </c>
+      <c r="G89">
+        <v>0.03510294783317813</v>
+      </c>
+      <c r="H89">
+        <v>0.06227823168614854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1983606053664969</v>
+        <v>0.2327826579774923</v>
       </c>
       <c r="C90">
-        <v>-0.2895427490817318</v>
+        <v>0.2657297474048324</v>
       </c>
       <c r="D90">
-        <v>-0.05868220988891718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005685555114892867</v>
+      </c>
+      <c r="E90">
+        <v>-0.05755381901085856</v>
+      </c>
+      <c r="F90">
+        <v>0.001797793678536156</v>
+      </c>
+      <c r="G90">
+        <v>-0.03614670500676115</v>
+      </c>
+      <c r="H90">
+        <v>0.04800983809542084</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1785052445865659</v>
+        <v>0.1684820854599658</v>
       </c>
       <c r="C91">
-        <v>0.1384127978894193</v>
+        <v>-0.1585977840870389</v>
       </c>
       <c r="D91">
-        <v>-0.05647028340240127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08508824627623265</v>
+      </c>
+      <c r="E91">
+        <v>-0.09686076241077617</v>
+      </c>
+      <c r="F91">
+        <v>0.01680396515785904</v>
+      </c>
+      <c r="G91">
+        <v>0.07912880110285303</v>
+      </c>
+      <c r="H91">
+        <v>-0.1363768668234488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1661150556885576</v>
+        <v>0.2096655043706729</v>
       </c>
       <c r="C92">
-        <v>-0.2889643966059937</v>
+        <v>0.2770015183542858</v>
       </c>
       <c r="D92">
-        <v>-0.02143154784377476</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01064033720189203</v>
+      </c>
+      <c r="E92">
+        <v>-0.08725959284352924</v>
+      </c>
+      <c r="F92">
+        <v>-0.03441114230209933</v>
+      </c>
+      <c r="G92">
+        <v>0.002766131390486</v>
+      </c>
+      <c r="H92">
+        <v>0.03174170644834701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2289533176111398</v>
+        <v>0.2565066053751874</v>
       </c>
       <c r="C93">
-        <v>-0.3182213964666785</v>
+        <v>0.2785199322214367</v>
       </c>
       <c r="D93">
-        <v>-0.03854621236686118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01585589093459842</v>
+      </c>
+      <c r="E93">
+        <v>-0.02817219002035563</v>
+      </c>
+      <c r="F93">
+        <v>0.03243604679246539</v>
+      </c>
+      <c r="G93">
+        <v>0.01099938593915572</v>
+      </c>
+      <c r="H93">
+        <v>0.006173117734046101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3868074718246236</v>
+        <v>0.3363332125002946</v>
       </c>
       <c r="C94">
-        <v>0.2632607097723207</v>
+        <v>-0.2596200446595863</v>
       </c>
       <c r="D94">
-        <v>-0.4581430323753378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4461961098085467</v>
+      </c>
+      <c r="E94">
+        <v>-0.1049700431849401</v>
+      </c>
+      <c r="F94">
+        <v>-0.03206453839794331</v>
+      </c>
+      <c r="G94">
+        <v>-0.6045966847670931</v>
+      </c>
+      <c r="H94">
+        <v>-0.02905806692975998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08513322131430931</v>
+        <v>0.07347460076598267</v>
       </c>
       <c r="C95">
-        <v>0.0663310841139759</v>
+        <v>-0.05921304949327473</v>
       </c>
       <c r="D95">
-        <v>0.1272270722703381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09232856443769988</v>
+      </c>
+      <c r="E95">
+        <v>0.09834935344818782</v>
+      </c>
+      <c r="F95">
+        <v>-0.9072063443144349</v>
+      </c>
+      <c r="G95">
+        <v>0.03010226198557232</v>
+      </c>
+      <c r="H95">
+        <v>-0.0556310441602035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1793365831404399</v>
+        <v>0.1676290425932664</v>
       </c>
       <c r="C98">
-        <v>0.01035514082883331</v>
+        <v>-0.0525283993664614</v>
       </c>
       <c r="D98">
-        <v>0.1493135472640647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1358937360344934</v>
+      </c>
+      <c r="E98">
+        <v>0.2927529959679979</v>
+      </c>
+      <c r="F98">
+        <v>0.08462791508471233</v>
+      </c>
+      <c r="G98">
+        <v>0.02852203394670009</v>
+      </c>
+      <c r="H98">
+        <v>-0.02018478532775908</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003501970506642508</v>
+        <v>0.006465470434969979</v>
       </c>
       <c r="C101">
-        <v>0.01190335161763901</v>
+        <v>-0.02147275328360808</v>
       </c>
       <c r="D101">
-        <v>0.06074837047783222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07694582754485835</v>
+      </c>
+      <c r="E101">
+        <v>-0.04464233321725084</v>
+      </c>
+      <c r="F101">
+        <v>-0.0008466181353511166</v>
+      </c>
+      <c r="G101">
+        <v>0.02202574302602536</v>
+      </c>
+      <c r="H101">
+        <v>0.09946880994251173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1259860598919686</v>
+        <v>0.112574569204786</v>
       </c>
       <c r="C102">
-        <v>0.1195790552251006</v>
+        <v>-0.1184305855075596</v>
       </c>
       <c r="D102">
-        <v>-0.0302431213222454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04980264451161145</v>
+      </c>
+      <c r="E102">
+        <v>-0.03003352317220164</v>
+      </c>
+      <c r="F102">
+        <v>-0.02075411374932501</v>
+      </c>
+      <c r="G102">
+        <v>0.05909864023529521</v>
+      </c>
+      <c r="H102">
+        <v>0.007756964027827852</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
